--- a/data/trans_bre/P05A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P05A_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>12.16958106748599</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3627044329271668</v>
+        <v>0.3627044329271661</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.09529313911362761</v>
@@ -649,7 +649,7 @@
         <v>0.3334385555265835</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1030713696390819</v>
+        <v>0.1030713696390817</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.90877742532949</v>
+        <v>-8.71437703045827</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.465697117578312</v>
+        <v>-8.292972564319619</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.323435327211683</v>
+        <v>3.679901078814375</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.615441814292847</v>
+        <v>-2.432525551679207</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3980084654617458</v>
+        <v>-0.3917024224284426</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1740826834416157</v>
+        <v>-0.1691260461102724</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1126045499194298</v>
+        <v>0.08651207881520889</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4891884250408115</v>
+        <v>-0.4588164377759072</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.997498234243062</v>
+        <v>4.006512079725835</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.014053345916247</v>
+        <v>8.977849080756881</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.97985730172652</v>
+        <v>20.47068784493115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.941034473806956</v>
+        <v>2.928802136786326</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3656041383363874</v>
+        <v>0.2658741228258137</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2184766118290033</v>
+        <v>0.222059489695537</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6656922122898257</v>
+        <v>0.6233640736056334</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.564622186045011</v>
+        <v>1.424432457421525</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-2.340559702604972</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.058198552186507</v>
+        <v>-1.058198552186509</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0932470284453035</v>
@@ -749,7 +749,7 @@
         <v>-0.04302547237570061</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.07335441547942104</v>
+        <v>-0.07335441547942123</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.886777937100783</v>
+        <v>-2.921641113685697</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.829280771513062</v>
+        <v>-2.955361185418006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.979881496374109</v>
+        <v>-8.218745394169618</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.026509283695621</v>
+        <v>-5.73405536727471</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08092180754021902</v>
+        <v>-0.08194632985160116</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06769396581199623</v>
+        <v>-0.07009621471835391</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1547121833257047</v>
+        <v>-0.1417651366973233</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3417244027687883</v>
+        <v>-0.3191094666365139</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.076191104277138</v>
+        <v>10.18445241421646</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.105087266098582</v>
+        <v>9.537529493171711</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.17400845817531</v>
+        <v>4.383682929899144</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.442171130732638</v>
+        <v>3.86943555993822</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.307233927109922</v>
+        <v>0.3429388396021544</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2614130812074896</v>
+        <v>0.2675246478687587</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08084761019992524</v>
+        <v>0.08639835694391315</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3088532639892405</v>
+        <v>0.3459501179930476</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.967820721118058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.909799113817637</v>
+        <v>-1.909799113817631</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7877535809588343</v>
@@ -849,7 +849,7 @@
         <v>-0.09515711416531809</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.08045187044694208</v>
+        <v>-0.08045187044694187</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.901327080111443</v>
+        <v>9.612135091940686</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.40313302240174</v>
+        <v>-0.4651870977227015</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.26435321347064</v>
+        <v>-10.00904987493662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.268098223321745</v>
+        <v>-7.983253129789193</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4066142890487551</v>
+        <v>0.378124023952717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.02697012744270573</v>
+        <v>-0.01031382581056218</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2984308384191733</v>
+        <v>-0.2848436629177949</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2967761625395519</v>
+        <v>-0.2916509954737145</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.01041079361725</v>
+        <v>24.09704067285604</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.19920913159859</v>
+        <v>14.49129659227399</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.805956632885916</v>
+        <v>3.736154853998742</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.077805948744803</v>
+        <v>4.189678978711658</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.371569838889256</v>
+        <v>1.326390090400719</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3333978453176686</v>
+        <v>0.3579226736853542</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1406113386936604</v>
+        <v>0.1371992807697398</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2055127422949194</v>
+        <v>0.20898516163933</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.673395404420322</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.121760347536042</v>
+        <v>2.121760347536044</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1639276377007213</v>
@@ -949,7 +949,7 @@
         <v>0.1493745758152206</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1118642368413916</v>
+        <v>0.1118642368413918</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-11.41800655774141</v>
+        <v>-11.00652121235281</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8500364857988137</v>
+        <v>1.431852531083283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.901194590828525</v>
+        <v>-2.49990292261722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.07732621000221</v>
+        <v>-4.237045504490252</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3382074953353854</v>
+        <v>-0.3297796814301981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02705340049905749</v>
+        <v>0.03968293835810508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07942798459442323</v>
+        <v>-0.07677453491630067</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1812894827875135</v>
+        <v>-0.1872669086972377</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.40090583921525</v>
+        <v>2.190045789670691</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.67061852701533</v>
+        <v>15.27818323463842</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.84669778954622</v>
+        <v>11.82275563178708</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.363807453275529</v>
+        <v>8.536879416388174</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1003588299876209</v>
+        <v>0.08646278675542025</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5511258950231958</v>
+        <v>0.5394852845450016</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4304036672057737</v>
+        <v>0.4229061835668557</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5584879383900156</v>
+        <v>0.5873247710456355</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.3788959419805</v>
+        <v>-12.19755972805915</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-16.98866779557459</v>
+        <v>-17.01602970444466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.794290560753653</v>
+        <v>-6.962055878587615</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.801490685208328</v>
+        <v>-8.111835817611755</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2352452051944122</v>
+        <v>-0.2333340851053923</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2297438276597922</v>
+        <v>-0.2300079889220326</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2425423532865941</v>
+        <v>-0.2569398756019058</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.8633519818453737</v>
+        <v>-0.8646503925645015</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.181233031952956</v>
+        <v>7.365236422287003</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.180704477300262</v>
+        <v>1.611725202707848</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.561467792337124</v>
+        <v>8.815466304247847</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.9346794206191398</v>
+        <v>-1.122849745751044</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.175774541388956</v>
+        <v>0.1749855895910382</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03437880345740302</v>
+        <v>0.02030300159647925</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.496213009815436</v>
+        <v>0.4689049114472423</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2257513816399472</v>
+        <v>-0.1932782562302336</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-6.89110852954658</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.114802101335911</v>
+        <v>2.114802101335902</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6846751046999894</v>
@@ -1149,7 +1149,7 @@
         <v>-0.174149748056609</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1126646805383257</v>
+        <v>0.1126646805383253</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.863617061945818</v>
+        <v>5.341910065613826</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-16.10931175856661</v>
+        <v>-16.63733380524304</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-15.08558089743522</v>
+        <v>-15.00980271487844</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.60922058950493</v>
+        <v>-4.008384179516051</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1794297613379432</v>
+        <v>0.2544998820833815</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3018488771550107</v>
+        <v>-0.297746870761058</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3472499529310198</v>
+        <v>-0.3437499783317368</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1625055957490743</v>
+        <v>-0.1746958332519962</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.91527849946261</v>
+        <v>19.34050684081713</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7756851183798812</v>
+        <v>1.532929224743745</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.568575440487182</v>
+        <v>1.157788943292605</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.317592950890714</v>
+        <v>7.824923174440578</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.265749358083377</v>
+        <v>1.494504477640834</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01812682559634166</v>
+        <v>0.02968007020237005</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04483649759950179</v>
+        <v>0.03952974743048303</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4680062871288238</v>
+        <v>0.5294428637880306</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.567590558267669</v>
+        <v>4.062503187651706</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.846142469335502</v>
+        <v>-7.382267086926281</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.397294638405408</v>
+        <v>-3.314203387404853</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.194846932706831</v>
+        <v>-2.582234154333803</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1728044384896904</v>
+        <v>0.147074817233331</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1556473762949398</v>
+        <v>-0.1645558075072991</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.08434542981303848</v>
+        <v>-0.07914514183201754</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.06190818279588249</v>
+        <v>-0.07382669995496459</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.53234469172276</v>
+        <v>14.52238763361799</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.850049028799012</v>
+        <v>3.702576517515454</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.802834868530323</v>
+        <v>7.23173995002665</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.074929454882655</v>
+        <v>7.759958412593798</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6784523181683855</v>
+        <v>0.6744856796149653</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1009122602454844</v>
+        <v>0.09216391415680637</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2199048060841893</v>
+        <v>0.205243878355679</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2783685322654065</v>
+        <v>0.2738812450131455</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.648360621127126</v>
+        <v>-1.636076667119296</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-5.815247278029307</v>
+        <v>-5.793112018175151</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-5.176633362159879</v>
+        <v>-5.051232013628558</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.906038110761</v>
+        <v>1.605553972872013</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.04080966253382512</v>
+        <v>-0.04061765598716634</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2113122184824054</v>
+        <v>-0.214357733072138</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1676644302216548</v>
+        <v>-0.1690611064041762</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.10367635932234</v>
+        <v>0.09111214658050744</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>8.186333900230551</v>
+        <v>8.674485080061256</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.145225457874389</v>
+        <v>2.913427060025156</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.928212710773967</v>
+        <v>4.425778062703283</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.494280806218828</v>
+        <v>9.428360289147285</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2232874977917071</v>
+        <v>0.2363989502945502</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.132374335110798</v>
+        <v>0.1318191104088048</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1530390034312413</v>
+        <v>0.174793458699961</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6915938312082222</v>
+        <v>0.675718070884619</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>0.6321246976857431</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.827592424557742</v>
+        <v>1.827592424557739</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1653868371588249</v>
@@ -1449,7 +1449,7 @@
         <v>0.01756907360887617</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.09850869922718045</v>
+        <v>0.09850869922718029</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.374093386206664</v>
+        <v>2.500816036412672</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.284920549740911</v>
+        <v>-2.246456628998641</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.636590286607862</v>
+        <v>-1.620070349235077</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.03672902033424552</v>
+        <v>0.1022159166312388</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.0784053205327038</v>
+        <v>0.0819614629941358</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.05560237535049632</v>
+        <v>-0.05531398437989624</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.04396362669691147</v>
+        <v>-0.04534402042230234</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.002089176625934871</v>
+        <v>0.005250926366016171</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.983966230252565</v>
+        <v>7.277535050327498</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.628825992583964</v>
+        <v>2.603292963602643</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.062349905212381</v>
+        <v>3.113341437273942</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.746706544240201</v>
+        <v>3.738729813675823</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2482905308787056</v>
+        <v>0.2568022576692071</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06833855370122907</v>
+        <v>0.06790611490926593</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08903272042401836</v>
+        <v>0.08850117676755255</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2189982864446592</v>
+        <v>0.213499406078023</v>
       </c>
     </row>
     <row r="31">
